--- a/LendingClub/LCDataDictionary2014.xlsx
+++ b/LendingClub/LCDataDictionary2014.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -13,9 +13,11 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$D$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$E$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet3!$A$1:$B$33</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="224">
   <si>
     <t>LoanStatNew</t>
   </si>
@@ -607,13 +609,106 @@
   </si>
   <si>
     <t>A generated id value</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>tot_hi_cred_lim                        False</t>
+  </si>
+  <si>
+    <t>total_il_high_credit_limit             False</t>
+  </si>
+  <si>
+    <t>num_tl_30dpd                           False</t>
+  </si>
+  <si>
+    <t>num_tl_90g_dpd_24m                     False</t>
+  </si>
+  <si>
+    <t>num_tl_op_past_12m                     False</t>
+  </si>
+  <si>
+    <t>num_accts_ever_120_pd                  False</t>
+  </si>
+  <si>
+    <t>num_actv_bc_tl                         False</t>
+  </si>
+  <si>
+    <t>num_actv_rev_tl                        False</t>
+  </si>
+  <si>
+    <t>num_bc_tl                              False</t>
+  </si>
+  <si>
+    <t>num_il_tl                              False</t>
+  </si>
+  <si>
+    <t>num_op_rev_tl                          False</t>
+  </si>
+  <si>
+    <t>num_rev_accts                          False</t>
+  </si>
+  <si>
+    <t>num_rev_tl_bal_gt_0                    False</t>
+  </si>
+  <si>
+    <t>mo_sin_rcnt_tl                         False</t>
+  </si>
+  <si>
+    <t>tot_coll_amt                           False</t>
+  </si>
+  <si>
+    <t>tot_cur_bal                            False</t>
+  </si>
+  <si>
+    <t>total_rev_hi_lim                       False</t>
+  </si>
+  <si>
+    <t>total_bal_ex_mort                      False</t>
+  </si>
+  <si>
+    <t>total_bc_limit                         False</t>
+  </si>
+  <si>
+    <t>pct_tl_nvr_dlq                         False</t>
+  </si>
+  <si>
+    <t>num_bc_sats                            False</t>
+  </si>
+  <si>
+    <t>num_sats                               False</t>
+  </si>
+  <si>
+    <t>mo_sin_old_rev_tl_op                   False</t>
+  </si>
+  <si>
+    <t>mo_sin_rcnt_rev_tl_op                  False</t>
+  </si>
+  <si>
+    <t>mort_acc                               False</t>
+  </si>
+  <si>
+    <t>acc_open_past_24mths                   False</t>
+  </si>
+  <si>
+    <t>Is Predictive feature?</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -629,8 +724,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -673,6 +775,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -710,7 +818,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -750,6 +858,8 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1064,22 +1174,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M95"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="B1:N95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="30.6328125" customWidth="1"/>
     <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="196.6328125" customWidth="1"/>
-    <col min="5" max="5" width="118.81640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="25" customWidth="1"/>
+    <col min="4" max="4" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="196.6328125" customWidth="1"/>
+    <col min="6" max="6" width="118.81640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1087,106 +1199,133 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B3" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="2:7" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="B4" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="2:7" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="B6" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="2:7" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="B7" s="13" t="s">
         <v>183</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="2:6" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="2:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B9" s="14" t="s">
         <v>181</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="2:6" s="4" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="2:7" s="4" customFormat="1" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="16" t="s">
         <v>11</v>
       </c>
@@ -1194,730 +1333,916 @@
         <v>188</v>
       </c>
       <c r="D10" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="2:7" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="2:7" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="B12" s="16" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="E12" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B13" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="E13" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B14" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="E14" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B15" s="16" t="s">
         <v>43</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="E15" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B16" s="16" t="s">
         <v>48</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="E16" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="2:12" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="2:13" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="16" t="s">
         <v>52</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="E17" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B18" s="16" t="s">
         <v>54</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="E18" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="2:13" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="B19" s="16" t="s">
         <v>56</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="E19" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="2:13" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="B20" s="16" t="s">
         <v>60</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="E20" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="2:13" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="B21" s="16" t="s">
         <v>62</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="E21" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B22" s="16" t="s">
         <v>64</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="E22" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="2:13" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="B23" s="16" t="s">
         <v>66</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="E23" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="2:13" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="B24" s="16" t="s">
         <v>92</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="E24" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="2:12" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="2:13" s="3" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="16" t="s">
         <v>123</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="E25" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="2:13" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="B26" s="16" t="s">
         <v>125</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="E26" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="2:12" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="2:13" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B27" s="16" t="s">
         <v>131</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="E27" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B28" s="16" t="s">
         <v>137</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="E28" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B29" s="16" t="s">
         <v>139</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="E29" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="7"/>
-    </row>
-    <row r="30" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F29" s="4"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="7"/>
+    </row>
+    <row r="30" spans="2:13" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="B30" s="16" t="s">
         <v>141</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="E30" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="16" t="s">
         <v>147</v>
       </c>
       <c r="C31" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="E31" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B32" s="16" t="s">
         <v>151</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="E32" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="16" t="s">
         <v>153</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="E33" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="B34" s="16" t="s">
         <v>169</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="E34" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="B35" s="16" t="s">
         <v>171</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="E35" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="F35" s="3"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="7"/>
+      <c r="G35" s="3"/>
+      <c r="L35" s="6"/>
       <c r="M35" s="7"/>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="N35" s="7"/>
+    </row>
+    <row r="36" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="B36" s="16" t="s">
         <v>173</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="E36" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="F36" s="3"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="7"/>
+      <c r="G36" s="3"/>
+      <c r="L36" s="8"/>
       <c r="M36" s="7"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="N36" s="7"/>
+    </row>
+    <row r="37" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="B37" s="16" t="s">
         <v>175</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="E37" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="B38" s="16" t="s">
         <v>177</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="E38" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B39" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E39" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B40" s="21" t="s">
         <v>13</v>
       </c>
       <c r="C40" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E40" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B41" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C41" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E41" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B42" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C42" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E42" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B43" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C43" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D43" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E43" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B44" s="19" t="s">
         <v>33</v>
       </c>
       <c r="C44" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D44" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E44" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B45" s="19" t="s">
         <v>50</v>
       </c>
       <c r="C45" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E45" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B46" s="19" t="s">
         <v>58</v>
       </c>
       <c r="C46" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="D46" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E46" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="F46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B47" s="21" t="s">
         <v>68</v>
       </c>
       <c r="C47" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D47" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E47" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="F47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B48" s="21" t="s">
         <v>70</v>
       </c>
       <c r="C48" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D48" s="19" t="s">
+      <c r="D48" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E48" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="F48" s="3"/>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B49" s="21" t="s">
         <v>72</v>
       </c>
       <c r="C49" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D49" s="19" t="s">
+      <c r="D49" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E49" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B50" s="21" t="s">
         <v>74</v>
       </c>
       <c r="C50" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D50" s="19" t="s">
+      <c r="D50" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E50" s="19" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B51" s="21" t="s">
         <v>76</v>
       </c>
       <c r="C51" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D51" s="19" t="s">
+      <c r="D51" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E51" s="19" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B52" s="19" t="s">
         <v>82</v>
       </c>
       <c r="C52" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="D52" s="20" t="s">
+      <c r="D52" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="E52" s="20" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B53" s="21" t="s">
         <v>84</v>
       </c>
       <c r="C53" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D53" s="19" t="s">
+      <c r="D53" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E53" s="19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B54" s="21" t="s">
         <v>88</v>
       </c>
       <c r="C54" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D54" s="19" t="s">
+      <c r="D54" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E54" s="19" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B55" s="21" t="s">
         <v>96</v>
       </c>
       <c r="C55" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D55" s="19" t="s">
+      <c r="D55" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E55" s="19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B56" s="21" t="s">
         <v>98</v>
       </c>
       <c r="C56" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D56" s="19" t="s">
+      <c r="D56" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E56" s="19" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B57" s="21" t="s">
         <v>100</v>
       </c>
       <c r="C57" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D57" s="19" t="s">
+      <c r="D57" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E57" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B58" s="21" t="s">
         <v>102</v>
       </c>
       <c r="C58" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D58" s="19" t="s">
+      <c r="D58" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E58" s="19" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B59" s="21" t="s">
         <v>104</v>
       </c>
       <c r="C59" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D59" s="19" t="s">
+      <c r="D59" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E59" s="19" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B60" s="21" t="s">
         <v>106</v>
       </c>
       <c r="C60" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D60" s="19" t="s">
+      <c r="D60" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E60" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="E60"/>
-      <c r="H60" s="2"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F60"/>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B61" s="21" t="s">
         <v>108</v>
       </c>
       <c r="C61" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D61" s="19" t="s">
+      <c r="D61" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E61" s="19" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B62" s="21" t="s">
         <v>110</v>
       </c>
       <c r="C62" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D62" s="19" t="s">
+      <c r="D62" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E62" s="19" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B63" s="21" t="s">
         <v>112</v>
       </c>
       <c r="C63" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D63" s="19" t="s">
+      <c r="D63" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E63" s="19" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B64" s="21" t="s">
         <v>119</v>
       </c>
       <c r="C64" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D64" s="19" t="s">
+      <c r="D64" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E64" s="19" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B65" s="19" t="s">
         <v>121</v>
       </c>
       <c r="C65" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D65" s="20" t="s">
+      <c r="D65" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E65" s="20" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B66" s="21" t="s">
         <v>127</v>
       </c>
       <c r="C66" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D66" s="19" t="s">
+      <c r="D66" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E66" s="19" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B67" s="21" t="s">
         <v>129</v>
       </c>
       <c r="C67" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D67" s="19" t="s">
+      <c r="D67" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E67" s="19" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B68" s="19" t="s">
         <v>133</v>
       </c>
       <c r="C68" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D68" s="20" t="s">
+      <c r="D68" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E68" s="20" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B69" s="21" t="s">
         <v>135</v>
       </c>
       <c r="C69" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D69" s="19" t="s">
+      <c r="D69" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E69" s="19" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B70" s="19" t="s">
         <v>143</v>
       </c>
       <c r="C70" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D70" s="20" t="s">
+      <c r="D70" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E70" s="20" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B71" s="19" t="s">
         <v>145</v>
       </c>
       <c r="C71" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D71" s="20" t="s">
+      <c r="D71" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E71" s="20" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B72" s="21" t="s">
         <v>157</v>
       </c>
@@ -1925,65 +2250,83 @@
         <v>189</v>
       </c>
       <c r="D72" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E72" s="21" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B73" s="21" t="s">
         <v>159</v>
       </c>
       <c r="C73" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D73" s="19" t="s">
+      <c r="D73" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E73" s="19" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B74" s="19" t="s">
         <v>161</v>
       </c>
       <c r="C74" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D74" s="20" t="s">
+      <c r="D74" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E74" s="20" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B75" s="21" t="s">
         <v>163</v>
       </c>
       <c r="C75" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D75" s="19" t="s">
+      <c r="D75" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E75" s="19" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B76" s="21" t="s">
         <v>165</v>
       </c>
       <c r="C76" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D76" s="19" t="s">
+      <c r="D76" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E76" s="19" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B77" s="21" t="s">
         <v>167</v>
       </c>
       <c r="C77" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D77" s="19" t="s">
+      <c r="D77" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E77" s="19" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B78" s="21" t="s">
         <v>179</v>
       </c>
@@ -1991,10 +2334,13 @@
         <v>189</v>
       </c>
       <c r="D78" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E78" s="21" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B79" s="22" t="s">
         <v>3</v>
       </c>
@@ -2002,65 +2348,83 @@
         <v>190</v>
       </c>
       <c r="D79" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="E79" s="22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B80" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C80" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="D80" s="23" t="s">
+      <c r="D80" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="E80" s="23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B81" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C81" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="D81" s="24" t="s">
+      <c r="D81" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="E81" s="24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B82" s="23" t="s">
         <v>25</v>
       </c>
       <c r="C82" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="D82" s="24" t="s">
+      <c r="D82" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="E82" s="24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B83" s="22" t="s">
         <v>27</v>
       </c>
       <c r="C83" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="D83" s="23" t="s">
+      <c r="D83" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="E83" s="23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B84" s="23" t="s">
         <v>78</v>
       </c>
       <c r="C84" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="D84" s="24" t="s">
+      <c r="D84" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="E84" s="24" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B85" s="22" t="s">
         <v>80</v>
       </c>
@@ -2068,76 +2432,97 @@
         <v>190</v>
       </c>
       <c r="D85" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="E85" s="22" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B86" s="22" t="s">
         <v>86</v>
       </c>
       <c r="C86" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="D86" s="23" t="s">
+      <c r="D86" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="E86" s="23" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B87" s="22" t="s">
         <v>90</v>
       </c>
       <c r="C87" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="D87" s="23" t="s">
+      <c r="D87" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="E87" s="23" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B88" s="22" t="s">
         <v>94</v>
       </c>
       <c r="C88" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="D88" s="23" t="s">
+      <c r="D88" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="E88" s="23" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B89" s="22" t="s">
         <v>114</v>
       </c>
       <c r="C89" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="D89" s="23" t="s">
+      <c r="D89" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="E89" s="23" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B90" s="22" t="s">
         <v>116</v>
       </c>
       <c r="C90" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="D90" s="23" t="s">
+      <c r="D90" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="E90" s="23" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B91" s="22" t="s">
         <v>117</v>
       </c>
       <c r="C91" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="D91" s="23" t="s">
+      <c r="D91" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="E91" s="23" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B92" s="22" t="s">
         <v>149</v>
       </c>
@@ -2145,10 +2530,13 @@
         <v>190</v>
       </c>
       <c r="D92" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="E92" s="23" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B93" s="22" t="s">
         <v>155</v>
       </c>
@@ -2156,29 +2544,335 @@
         <v>190</v>
       </c>
       <c r="D93" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="E93" s="22" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D95" s="10" t="s">
+      <c r="E94" s="9"/>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E95" s="10" t="s">
         <v>185</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:D93">
-    <sortState ref="B2:D93">
+  <autoFilter ref="B1:E93">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Yes"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="B2:E93">
       <sortCondition ref="C77"/>
     </sortState>
   </autoFilter>
-  <sortState ref="B2:D96">
+  <sortState ref="B2:E96">
     <sortCondition ref="C2:C96"/>
     <sortCondition ref="B2:B96"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.90625" customWidth="1"/>
+    <col min="2" max="2" width="34.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>277238</v>
+      </c>
+      <c r="B2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>283798</v>
+      </c>
+      <c r="B3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>283903</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>283911</v>
+      </c>
+      <c r="B5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>283911</v>
+      </c>
+      <c r="B6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>283912</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>283912</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>283912</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>283912</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>283912</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>283912</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>283912</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>283912</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>283912</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>283912</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>283912</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>283912</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>283912</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>283912</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>283912</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>283912</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>283912</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>293486</v>
+      </c>
+      <c r="B24" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>293486</v>
+      </c>
+      <c r="B25" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>297262</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>297353</v>
+      </c>
+      <c r="B27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>297454</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>297757</v>
+      </c>
+      <c r="B29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>300437</v>
+      </c>
+      <c r="B30" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>300437</v>
+      </c>
+      <c r="B31" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>300437</v>
+      </c>
+      <c r="B32" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>300437</v>
+      </c>
+      <c r="B33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B33">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="277238"/>
+        <filter val="283798"/>
+        <filter val="283903"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A2:B41">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>